--- a/Study 2/Confidence_Codebook.xlsx
+++ b/Study 2/Confidence_Codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobelder/Documents/GitHub/Confidence/Study 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5E248F-D57D-2D47-B9E2-AD9049A1F13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE32E4-5B43-FB4F-BFFA-2262A0BFF72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="500" windowWidth="27740" windowHeight="16940" xr2:uid="{A6A7A6EB-633B-6B40-A1B0-CA845A618035}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>traits</t>
   </si>
@@ -78,6 +78,159 @@
   </si>
   <si>
     <t>average confidence per subject</t>
+  </si>
+  <si>
+    <t>evalBT</t>
+  </si>
+  <si>
+    <t>average evaluation per trait</t>
+  </si>
+  <si>
+    <t>evalBSWV</t>
+  </si>
+  <si>
+    <t>average evaluation per subject for each valence</t>
+  </si>
+  <si>
+    <t>evalBS</t>
+  </si>
+  <si>
+    <t>average evaluation per subject</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>Self-Concept Clarity</t>
+  </si>
+  <si>
+    <t>NFC</t>
+  </si>
+  <si>
+    <t>Need for Cognition</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Rosenberg Self-Esteem</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Dialectical Self-Views</t>
+  </si>
+  <si>
+    <t>CESD</t>
+  </si>
+  <si>
+    <t>Depressive Symptoms</t>
+  </si>
+  <si>
+    <t>SWLS</t>
+  </si>
+  <si>
+    <t>Satisfaction with Life</t>
+  </si>
+  <si>
+    <t>MAIA</t>
+  </si>
+  <si>
+    <t>Interoceptive Awareness</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>confidence judgments</t>
+  </si>
+  <si>
+    <t>eval</t>
+  </si>
+  <si>
+    <t>sel-evaluation</t>
+  </si>
+  <si>
+    <t>confidence quadratic</t>
+  </si>
+  <si>
+    <t>desirability</t>
+  </si>
+  <si>
+    <t>normative desirability</t>
+  </si>
+  <si>
+    <t>prevalence</t>
+  </si>
+  <si>
+    <t>normative prevalence</t>
+  </si>
+  <si>
+    <t>clusterName</t>
+  </si>
+  <si>
+    <t>cluster name</t>
+  </si>
+  <si>
+    <t>Idx</t>
+  </si>
+  <si>
+    <t>trait id code</t>
+  </si>
+  <si>
+    <t>inSelfNeigh</t>
+  </si>
+  <si>
+    <t>average self-evaluations of neighbors trait is caused by</t>
+  </si>
+  <si>
+    <t>outSelfNeigh</t>
+  </si>
+  <si>
+    <t>average self-evaluations of neighbors trait causes</t>
+  </si>
+  <si>
+    <t>allSelfNeigh</t>
+  </si>
+  <si>
+    <t>average self-evaluations of all neighbors</t>
+  </si>
+  <si>
+    <t>inConfNeigh</t>
+  </si>
+  <si>
+    <t>average confidence of neighbors trait is caused by</t>
+  </si>
+  <si>
+    <t>outConfNeigh</t>
+  </si>
+  <si>
+    <t>average confidence of neighbors trait causes</t>
+  </si>
+  <si>
+    <t>devMid</t>
+  </si>
+  <si>
+    <t>self-evaluation's deviation from midpoint (4)</t>
+  </si>
+  <si>
+    <t>Tsmean</t>
+  </si>
+  <si>
+    <t>mean of evalBSWV and evalBT</t>
+  </si>
+  <si>
+    <t>devT</t>
+  </si>
+  <si>
+    <t>devTS</t>
+  </si>
+  <si>
+    <t>absolute difference of self-evaluation from average subject evaluation (Tsmean)</t>
+  </si>
+  <si>
+    <t>absolute difference of self-evaluation from average trait evaluation per valence</t>
   </si>
 </sst>
 </file>
@@ -447,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DA79C2-44EF-514A-81F2-EB0CBA562355}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,6 +667,214 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
